--- a/Data/树/文本挖掘树.xlsx
+++ b/Data/树/文本挖掘树.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7178E8C-85AF-4BA8-8E6F-72E8B32CFA09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799ADBC7-7559-47BD-944B-63E6C9C8A81D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7152" yWindow="876" windowWidth="20760" windowHeight="16752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,10 +33,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>Descriptors</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>composition</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1214,6 +1210,10 @@
   </si>
   <si>
     <t>pressure</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextMiningRoot</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -1631,7 +1631,7 @@
   <dimension ref="A1:D286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A2" sqref="A2:A286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1674,7 +1674,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1682,7 +1682,7 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1690,7 +1690,7 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1698,7 +1698,7 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1706,7 +1706,7 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1714,7 +1714,7 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1722,7 +1722,7 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1730,7 +1730,7 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1738,7 +1738,7 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1746,7 +1746,7 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1754,7 +1754,7 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1762,7 +1762,7 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1770,7 +1770,7 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1778,7 +1778,7 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1786,7 +1786,7 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1794,7 +1794,7 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1802,7 +1802,7 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1810,7 +1810,7 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1818,7 +1818,7 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1826,7 +1826,7 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1834,7 +1834,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1842,7 +1842,7 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1850,7 +1850,7 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1858,7 +1858,7 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1866,7 +1866,7 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1874,7 +1874,7 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1882,7 +1882,7 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1898,7 +1898,7 @@
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1906,7 +1906,7 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1914,7 +1914,7 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1922,7 +1922,7 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1930,7 +1930,7 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1938,7 +1938,7 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1946,7 +1946,7 @@
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1954,7 +1954,7 @@
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1962,17 +1962,17 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
         <v>45</v>
-      </c>
-      <c r="D40" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1980,7 +1980,7 @@
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1988,7 +1988,7 @@
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1996,7 +1996,7 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2004,7 +2004,7 @@
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2012,7 +2012,7 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2020,7 +2020,7 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2028,7 +2028,7 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2036,7 +2036,7 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2044,7 +2044,7 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2052,7 +2052,7 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2060,7 +2060,7 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2068,7 +2068,7 @@
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2076,7 +2076,7 @@
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2084,7 +2084,7 @@
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2092,7 +2092,7 @@
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2100,7 +2100,7 @@
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2108,7 +2108,7 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2116,7 +2116,7 @@
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2124,7 +2124,7 @@
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2132,7 +2132,7 @@
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2140,7 +2140,7 @@
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2148,7 +2148,7 @@
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2156,7 +2156,7 @@
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2164,7 +2164,7 @@
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2172,7 +2172,7 @@
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2180,7 +2180,7 @@
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2188,7 +2188,7 @@
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2196,7 +2196,7 @@
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2204,7 +2204,7 @@
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2212,7 +2212,7 @@
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2220,7 +2220,7 @@
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2228,7 +2228,7 @@
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2236,7 +2236,7 @@
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2244,7 +2244,7 @@
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2252,7 +2252,7 @@
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2260,7 +2260,7 @@
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2268,7 +2268,7 @@
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2276,7 +2276,7 @@
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2284,7 +2284,7 @@
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2292,7 +2292,7 @@
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2300,7 +2300,7 @@
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2308,7 +2308,7 @@
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2316,7 +2316,7 @@
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2324,7 +2324,7 @@
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2332,7 +2332,7 @@
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2340,7 +2340,7 @@
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2348,7 +2348,7 @@
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2356,7 +2356,7 @@
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2364,7 +2364,7 @@
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2372,7 +2372,7 @@
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2380,7 +2380,7 @@
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2388,7 +2388,7 @@
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2396,7 +2396,7 @@
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2404,17 +2404,17 @@
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D95" t="s">
         <v>101</v>
-      </c>
-      <c r="D95" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2422,7 +2422,7 @@
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2430,7 +2430,7 @@
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2438,7 +2438,7 @@
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2446,7 +2446,7 @@
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2454,7 +2454,7 @@
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2462,7 +2462,7 @@
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2470,7 +2470,7 @@
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2478,7 +2478,7 @@
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2486,7 +2486,7 @@
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2494,7 +2494,7 @@
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2502,17 +2502,17 @@
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D107" t="s">
         <v>114</v>
-      </c>
-      <c r="D107" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2520,7 +2520,7 @@
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2528,7 +2528,7 @@
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2536,7 +2536,7 @@
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2544,7 +2544,7 @@
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2552,7 +2552,7 @@
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2560,7 +2560,7 @@
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2568,19 +2568,19 @@
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="D115" t="s">
         <v>123</v>
-      </c>
-      <c r="D115" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2588,7 +2588,7 @@
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2596,7 +2596,7 @@
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2604,7 +2604,7 @@
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2612,7 +2612,7 @@
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2620,7 +2620,7 @@
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2628,7 +2628,7 @@
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2636,7 +2636,7 @@
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2644,7 +2644,7 @@
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2652,7 +2652,7 @@
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2660,7 +2660,7 @@
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2668,7 +2668,7 @@
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2676,7 +2676,7 @@
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2684,7 +2684,7 @@
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2692,7 +2692,7 @@
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2700,7 +2700,7 @@
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2708,7 +2708,7 @@
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2716,7 +2716,7 @@
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2724,7 +2724,7 @@
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2732,7 +2732,7 @@
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2740,7 +2740,7 @@
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2748,7 +2748,7 @@
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2756,7 +2756,7 @@
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2764,7 +2764,7 @@
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -2772,7 +2772,7 @@
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -2780,7 +2780,7 @@
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -2788,7 +2788,7 @@
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -2796,7 +2796,7 @@
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -2804,7 +2804,7 @@
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -2812,7 +2812,7 @@
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2820,7 +2820,7 @@
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -2828,7 +2828,7 @@
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -2836,7 +2836,7 @@
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -2844,7 +2844,7 @@
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -2852,7 +2852,7 @@
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -2860,7 +2860,7 @@
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -2868,7 +2868,7 @@
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -2876,7 +2876,7 @@
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -2884,7 +2884,7 @@
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -2892,7 +2892,7 @@
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -2900,7 +2900,7 @@
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -2908,7 +2908,7 @@
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -2916,7 +2916,7 @@
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -2924,7 +2924,7 @@
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -2932,7 +2932,7 @@
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -2940,7 +2940,7 @@
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -2948,7 +2948,7 @@
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -2964,7 +2964,7 @@
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -2972,7 +2972,7 @@
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -2980,7 +2980,7 @@
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -2988,7 +2988,7 @@
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -2996,7 +2996,7 @@
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3004,7 +3004,7 @@
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3012,7 +3012,7 @@
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3020,7 +3020,7 @@
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3028,7 +3028,7 @@
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3036,7 +3036,7 @@
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3044,7 +3044,7 @@
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3052,7 +3052,7 @@
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3060,7 +3060,7 @@
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -3068,7 +3068,7 @@
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3076,7 +3076,7 @@
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3084,7 +3084,7 @@
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -3092,7 +3092,7 @@
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -3100,7 +3100,7 @@
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -3108,7 +3108,7 @@
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -3116,7 +3116,7 @@
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -3124,7 +3124,7 @@
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -3132,7 +3132,7 @@
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -3140,7 +3140,7 @@
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -3148,7 +3148,7 @@
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -3156,7 +3156,7 @@
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -3164,7 +3164,7 @@
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -3172,7 +3172,7 @@
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -3180,7 +3180,7 @@
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -3188,7 +3188,7 @@
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -3196,7 +3196,7 @@
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -3204,7 +3204,7 @@
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -3212,7 +3212,7 @@
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -3220,7 +3220,7 @@
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -3228,7 +3228,7 @@
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -3236,7 +3236,7 @@
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -3244,7 +3244,7 @@
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -3252,7 +3252,7 @@
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -3260,7 +3260,7 @@
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -3268,7 +3268,7 @@
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -3276,7 +3276,7 @@
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -3284,7 +3284,7 @@
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -3292,7 +3292,7 @@
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -3300,7 +3300,7 @@
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -3308,7 +3308,7 @@
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -3316,7 +3316,7 @@
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -3324,7 +3324,7 @@
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -3332,17 +3332,17 @@
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D210" t="s">
         <v>219</v>
-      </c>
-      <c r="D210" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -3350,7 +3350,7 @@
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -3358,7 +3358,7 @@
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -3366,7 +3366,7 @@
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -3374,7 +3374,7 @@
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -3382,7 +3382,7 @@
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -3390,7 +3390,7 @@
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -3398,7 +3398,7 @@
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -3406,7 +3406,7 @@
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -3414,7 +3414,7 @@
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -3422,7 +3422,7 @@
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -3430,7 +3430,7 @@
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -3438,7 +3438,7 @@
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -3446,7 +3446,7 @@
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -3454,7 +3454,7 @@
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -3462,7 +3462,7 @@
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -3470,7 +3470,7 @@
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -3478,7 +3478,7 @@
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -3486,7 +3486,7 @@
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -3494,7 +3494,7 @@
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -3502,7 +3502,7 @@
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -3510,7 +3510,7 @@
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -3518,7 +3518,7 @@
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -3526,7 +3526,7 @@
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -3534,7 +3534,7 @@
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -3542,7 +3542,7 @@
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -3550,7 +3550,7 @@
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -3558,7 +3558,7 @@
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -3566,7 +3566,7 @@
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -3574,7 +3574,7 @@
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -3582,7 +3582,7 @@
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
       <c r="D240" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -3590,7 +3590,7 @@
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
       <c r="D241" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -3598,7 +3598,7 @@
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
       <c r="D242" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -3606,7 +3606,7 @@
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -3614,7 +3614,7 @@
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -3622,7 +3622,7 @@
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -3630,7 +3630,7 @@
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -3638,7 +3638,7 @@
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -3646,7 +3646,7 @@
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -3654,7 +3654,7 @@
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
       <c r="D249" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -3662,7 +3662,7 @@
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -3670,7 +3670,7 @@
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -3678,7 +3678,7 @@
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -3686,7 +3686,7 @@
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -3694,7 +3694,7 @@
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -3702,7 +3702,7 @@
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -3710,7 +3710,7 @@
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -3718,7 +3718,7 @@
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -3726,7 +3726,7 @@
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -3734,7 +3734,7 @@
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -3742,19 +3742,19 @@
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="D261" t="s">
         <v>271</v>
-      </c>
-      <c r="D261" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -3762,7 +3762,7 @@
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
       <c r="D262" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -3770,7 +3770,7 @@
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
       <c r="D263" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -3778,7 +3778,7 @@
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
       <c r="D264" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -3786,7 +3786,7 @@
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
       <c r="D265" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -3794,19 +3794,19 @@
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
       <c r="D266" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C267" s="2" t="s">
+      <c r="D267" t="s">
         <v>279</v>
-      </c>
-      <c r="D267" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -3814,7 +3814,7 @@
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
       <c r="D268" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -3822,7 +3822,7 @@
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
       <c r="D269" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -3830,7 +3830,7 @@
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
       <c r="D270" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -3838,7 +3838,7 @@
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -3846,7 +3846,7 @@
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
       <c r="D272" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -3854,7 +3854,7 @@
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
       <c r="D273" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -3862,7 +3862,7 @@
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
       <c r="D274" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -3870,7 +3870,7 @@
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
       <c r="D275" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -3878,7 +3878,7 @@
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
       <c r="D276" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -3886,7 +3886,7 @@
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
       <c r="D277" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -3894,7 +3894,7 @@
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
       <c r="D278" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -3902,7 +3902,7 @@
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
       <c r="D279" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -3910,7 +3910,7 @@
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
       <c r="D280" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -3918,7 +3918,7 @@
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
       <c r="D281" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -3926,7 +3926,7 @@
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
       <c r="D282" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -3934,7 +3934,7 @@
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
       <c r="D283" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -3942,7 +3942,7 @@
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
       <c r="D284" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -3950,7 +3950,7 @@
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
       <c r="D285" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -3958,7 +3958,7 @@
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
       <c r="D286" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -3979,6 +3979,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>